--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>44131</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43700</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43867</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44061</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43993</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44297</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45035</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43408</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43777</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44916</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43590</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43775</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44060</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44844</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45035</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43395</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43426</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43511</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43511</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43619</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43671</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43777</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43854</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43857</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43857</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43916</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43921</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43921</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43921</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43921</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43928</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43936</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44060</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>44060</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44060</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44061</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44092</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44154</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44165</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44216</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44237</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44294</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44340</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44340</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44623</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44687</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44805</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44840</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44844</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44844</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44844</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>44875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44896</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>44916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>44916</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44979</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44979</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44979</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45042</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45141</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45162</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>44131</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43700</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43867</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44061</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43993</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44297</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45035</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43408</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43777</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44916</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43590</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43775</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44060</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44844</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45035</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43395</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43426</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43511</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43511</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43619</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43671</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43777</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43854</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43857</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43857</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43916</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43921</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43921</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43921</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43921</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43928</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43936</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44060</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>44060</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44060</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44061</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44092</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44154</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44165</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44216</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44237</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44294</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44340</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44340</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44623</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44687</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44805</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44840</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44844</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44844</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44844</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>44875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44896</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>44916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>44916</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44979</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44979</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44979</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45042</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45141</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45162</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>44131</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43700</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43867</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44061</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43993</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44297</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45035</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43408</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43777</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44916</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43590</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43775</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44060</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44844</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45035</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43395</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43426</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43511</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43511</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43619</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43671</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43777</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43854</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43857</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43857</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43916</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43921</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43921</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43921</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43921</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43928</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43936</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44060</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>44060</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44060</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44061</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44092</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44154</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44165</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44216</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44237</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44294</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44340</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44340</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44623</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44687</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44805</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44840</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44844</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44844</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44844</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>44875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44896</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>44916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>44916</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44979</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44979</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44979</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45042</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45141</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45162</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>44131</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43700</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43867</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44061</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43993</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44297</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45035</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43408</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43777</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44916</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43590</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43775</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44060</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44844</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45035</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43395</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43426</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43511</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43511</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43619</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43671</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43777</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43854</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43857</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43857</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43916</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43921</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43921</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43921</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43921</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43928</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43936</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44060</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>44060</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44060</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44061</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44092</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44154</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44165</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44216</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44237</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44294</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44340</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44340</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44623</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44687</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44805</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44840</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44844</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44844</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44844</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>44875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44896</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>44916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>44916</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44979</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44979</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44979</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45042</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45141</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45162</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>44131</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43700</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43867</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44061</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43993</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44297</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45035</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43408</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43777</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44916</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43590</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43775</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44060</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44844</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45035</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43395</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43426</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43511</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43511</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43619</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43671</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43777</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43854</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43857</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43857</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43916</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43921</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43921</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43921</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43921</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43928</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43936</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44060</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>44060</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44060</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44061</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44092</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44154</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44165</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44216</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44237</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44294</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44340</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44340</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44623</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44687</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44805</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44840</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44844</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44844</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44844</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>44875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44896</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>44916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>44916</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44979</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44979</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44979</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45042</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45141</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45162</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>44131</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43700</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43867</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44061</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43993</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44297</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45035</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43408</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43777</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44916</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43590</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43775</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44060</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44844</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45035</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43395</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43426</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43511</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43511</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43619</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43671</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43777</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43854</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43857</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43857</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43916</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43921</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43921</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43921</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43921</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43928</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43936</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44060</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>44060</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44060</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44061</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44092</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44154</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44165</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44216</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44237</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44294</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44340</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44340</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44623</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44687</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44805</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44840</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44844</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44844</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44844</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>44875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44896</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>44916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>44916</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44979</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44979</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44979</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45042</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45141</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45162</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>44131</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43700</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43867</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44061</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43993</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44297</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45035</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43408</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43777</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44916</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43590</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43775</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44060</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44844</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45035</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43395</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43426</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43511</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43511</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43619</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43671</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43777</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43854</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43857</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43857</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43916</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43921</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43921</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43921</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43921</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43928</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43936</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44060</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>44060</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44060</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44061</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44092</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44154</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44165</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44216</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44237</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44294</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44340</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44340</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44623</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44687</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44805</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44840</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44844</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44844</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44844</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>44875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44896</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>44916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>44916</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44979</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44979</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44979</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45042</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45141</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45162</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y99"/>
+  <dimension ref="A1:Y100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>44131</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43700</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43867</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44061</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43993</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44297</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45035</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43408</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43777</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44916</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43590</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43775</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44060</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44844</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45035</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43395</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43426</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43511</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43511</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43619</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43671</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43777</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43854</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43857</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43857</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43916</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43921</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43921</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43921</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43921</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43928</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43936</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44060</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>44060</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44060</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44061</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44092</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44154</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44165</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44216</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44237</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44294</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44340</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44340</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44623</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44687</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44805</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44840</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44844</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44844</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44844</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>44875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44896</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>44916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>44916</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44979</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44979</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44979</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45042</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45141</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
       </c>
       <c r="R98" s="2" t="inlineStr"/>
     </row>
-    <row r="99">
+    <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
           <t>A 39006-2023</t>
@@ -6980,7 +6980,7 @@
         <v>45162</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7026,6 +7026,63 @@
         <v>0</v>
       </c>
       <c r="R99" s="2" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>A 42496-2023</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>44131</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43700</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43867</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44061</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43993</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44297</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45035</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43408</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43777</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44916</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43590</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43775</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44060</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44844</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45035</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43395</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43426</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43511</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43511</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43619</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43671</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43777</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43854</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43857</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43857</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43916</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43921</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43921</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43921</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43921</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43928</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43936</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44060</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>44060</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44060</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44061</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44092</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44154</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44165</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44216</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44237</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44294</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44340</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44340</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44623</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44687</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44805</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44840</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44844</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44844</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44844</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>44875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44896</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>44916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>44916</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44979</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44979</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44979</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45042</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45141</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45162</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45180</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,31 +666,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 10563-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 10563-2022.xlsx", "A 10563-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 10563-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 10563-2022.png", "A 10563-2022")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/knärot/A 10563-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/knärot/A 10563-2022.png", "A 10563-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 10563-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 10563-2022.docx", "A 10563-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 10563-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 10563-2022.docx", "A 10563-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 10563-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 10563-2022.docx", "A 10563-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 10563-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 10563-2022.docx", "A 10563-2022")</f>
         <v/>
       </c>
     </row>
@@ -704,7 +704,7 @@
         <v>44131</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,27 +773,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 55511-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 55511-2020.xlsx", "A 55511-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 55511-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 55511-2020.png", "A 55511-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 55511-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 55511-2020.docx", "A 55511-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 55511-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 55511-2020.docx", "A 55511-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 55511-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 55511-2020.docx", "A 55511-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 55511-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 55511-2020.docx", "A 55511-2020")</f>
         <v/>
       </c>
     </row>
@@ -807,7 +807,7 @@
         <v>44074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,27 +875,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 42505-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 42505-2020.xlsx", "A 42505-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 42505-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 42505-2020.png", "A 42505-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 42505-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 42505-2020.docx", "A 42505-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 42505-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 42505-2020.docx", "A 42505-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 42505-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 42505-2020.docx", "A 42505-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 42505-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 42505-2020.docx", "A 42505-2020")</f>
         <v/>
       </c>
     </row>
@@ -909,7 +909,7 @@
         <v>43700</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,27 +968,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 41920-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 41920-2019.xlsx", "A 41920-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 41920-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 41920-2019.png", "A 41920-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 41920-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 41920-2019.docx", "A 41920-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 41920-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 41920-2019.docx", "A 41920-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 41920-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 41920-2019.docx", "A 41920-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 41920-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 41920-2019.docx", "A 41920-2019")</f>
         <v/>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,27 +1059,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 52664-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 52664-2019.xlsx", "A 52664-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 52664-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 52664-2019.png", "A 52664-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 52664-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 52664-2019.docx", "A 52664-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 52664-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 52664-2019.docx", "A 52664-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 52664-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 52664-2019.docx", "A 52664-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 52664-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 52664-2019.docx", "A 52664-2019")</f>
         <v/>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
         <v>43867</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,27 +1155,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 6934-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 6934-2020.xlsx", "A 6934-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 6934-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 6934-2020.png", "A 6934-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 6934-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 6934-2020.docx", "A 6934-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 6934-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 6934-2020.docx", "A 6934-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 6934-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 6934-2020.docx", "A 6934-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 6934-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 6934-2020.docx", "A 6934-2020")</f>
         <v/>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
         <v>44061</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,27 +1246,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 38722-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 38722-2020.xlsx", "A 38722-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 38722-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 38722-2020.png", "A 38722-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 38722-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 38722-2020.docx", "A 38722-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 38722-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 38722-2020.docx", "A 38722-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 38722-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 38722-2020.docx", "A 38722-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 38722-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 38722-2020.docx", "A 38722-2020")</f>
         <v/>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1334,27 +1334,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 27955-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 27955-2020.xlsx", "A 27955-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 27955-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 27955-2020.png", "A 27955-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 27955-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 27955-2020.docx", "A 27955-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 27955-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 27955-2020.docx", "A 27955-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 27955-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 27955-2020.docx", "A 27955-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 27955-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 27955-2020.docx", "A 27955-2020")</f>
         <v/>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1427,27 +1427,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 42532-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 42532-2020.xlsx", "A 42532-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 42532-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 42532-2020.png", "A 42532-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 42532-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 42532-2020.docx", "A 42532-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 42532-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 42532-2020.docx", "A 42532-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 42532-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 42532-2020.docx", "A 42532-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 42532-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 42532-2020.docx", "A 42532-2020")</f>
         <v/>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,27 +1520,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 42512-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 42512-2020.xlsx", "A 42512-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 42512-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 42512-2020.png", "A 42512-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 42512-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 42512-2020.docx", "A 42512-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 42512-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 42512-2020.docx", "A 42512-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 42512-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 42512-2020.docx", "A 42512-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 42512-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 42512-2020.docx", "A 42512-2020")</f>
         <v/>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
         <v>43993</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1607,27 +1607,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 27642-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 27642-2020.xlsx", "A 27642-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 27642-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 27642-2020.png", "A 27642-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 27642-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 27642-2020.docx", "A 27642-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 27642-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 27642-2020.docx", "A 27642-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 27642-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 27642-2020.docx", "A 27642-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 27642-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 27642-2020.docx", "A 27642-2020")</f>
         <v/>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
         <v>44074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1699,27 +1699,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 42509-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 42509-2020.xlsx", "A 42509-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 42509-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 42509-2020.png", "A 42509-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 42509-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 42509-2020.docx", "A 42509-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 42509-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 42509-2020.docx", "A 42509-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 42509-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 42509-2020.docx", "A 42509-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 42509-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 42509-2020.docx", "A 42509-2020")</f>
         <v/>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
         <v>44297</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1786,27 +1786,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 17088-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 17088-2021.xlsx", "A 17088-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 17088-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 17088-2021.png", "A 17088-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 17088-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 17088-2021.docx", "A 17088-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 17088-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 17088-2021.docx", "A 17088-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 17088-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 17088-2021.docx", "A 17088-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 17088-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 17088-2021.docx", "A 17088-2021")</f>
         <v/>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
         <v>45035</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1878,27 +1878,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 17705-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 17705-2023.xlsx", "A 17705-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 17705-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 17705-2023.png", "A 17705-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 17705-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 17705-2023.docx", "A 17705-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 17705-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 17705-2023.docx", "A 17705-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 17705-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 17705-2023.docx", "A 17705-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 17705-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 17705-2023.docx", "A 17705-2023")</f>
         <v/>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
         <v>43408</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1964,27 +1964,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 58216-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 58216-2018.xlsx", "A 58216-2018")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 58216-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 58216-2018.png", "A 58216-2018")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 58216-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 58216-2018.docx", "A 58216-2018")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 58216-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 58216-2018.docx", "A 58216-2018")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 58216-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 58216-2018.docx", "A 58216-2018")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 58216-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 58216-2018.docx", "A 58216-2018")</f>
         <v/>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
         <v>43777</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2050,27 +2050,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 60777-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 60777-2019.xlsx", "A 60777-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 60777-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 60777-2019.png", "A 60777-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 60777-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 60777-2019.docx", "A 60777-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 60777-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 60777-2019.docx", "A 60777-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 60777-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 60777-2019.docx", "A 60777-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 60777-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 60777-2019.docx", "A 60777-2019")</f>
         <v/>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
         <v>44916</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2136,27 +2136,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 62435-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 62435-2022.xlsx", "A 62435-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 62435-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 62435-2022.png", "A 62435-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 62435-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 62435-2022.docx", "A 62435-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 62435-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 62435-2022.docx", "A 62435-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 62435-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 62435-2022.docx", "A 62435-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 62435-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 62435-2022.docx", "A 62435-2022")</f>
         <v/>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
         <v>43590</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,27 +2221,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 22812-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 22812-2019.xlsx", "A 22812-2019")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 22812-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 22812-2019.png", "A 22812-2019")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 22812-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 22812-2019.docx", "A 22812-2019")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 22812-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 22812-2019.docx", "A 22812-2019")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 22812-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 22812-2019.docx", "A 22812-2019")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 22812-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 22812-2019.docx", "A 22812-2019")</f>
         <v/>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
         <v>43775</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2311,27 +2311,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 61313-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 61313-2019.xlsx", "A 61313-2019")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 61313-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 61313-2019.png", "A 61313-2019")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 61313-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 61313-2019.docx", "A 61313-2019")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 61313-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 61313-2019.docx", "A 61313-2019")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 61313-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 61313-2019.docx", "A 61313-2019")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 61313-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 61313-2019.docx", "A 61313-2019")</f>
         <v/>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
         <v>44060</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2401,27 +2401,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 38342-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 38342-2020.xlsx", "A 38342-2020")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 38342-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 38342-2020.png", "A 38342-2020")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 38342-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 38342-2020.docx", "A 38342-2020")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 38342-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 38342-2020.docx", "A 38342-2020")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 38342-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 38342-2020.docx", "A 38342-2020")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 38342-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 38342-2020.docx", "A 38342-2020")</f>
         <v/>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
         <v>44844</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2491,27 +2491,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 45810-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 45810-2022.xlsx", "A 45810-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 45810-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 45810-2022.png", "A 45810-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 45810-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 45810-2022.docx", "A 45810-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 45810-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 45810-2022.docx", "A 45810-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 45810-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 45810-2022.docx", "A 45810-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 45810-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 45810-2022.docx", "A 45810-2022")</f>
         <v/>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
         <v>45035</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,27 +2581,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 17740-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 17740-2023.xlsx", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 17740-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 17740-2023.png", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 17740-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 17740-2023.docx", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 17740-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 17740-2023.docx", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 17740-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 17740-2023.docx", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 17740-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 17740-2023.docx", "A 17740-2023")</f>
         <v/>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
         <v>43395</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43426</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43511</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43511</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43619</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43671</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43777</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43854</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43857</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43857</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43916</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43921</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43921</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43921</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43921</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43928</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43936</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44060</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>44060</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44060</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44061</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44092</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44154</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44165</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44216</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44237</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44294</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44340</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44340</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44623</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44687</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44805</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44840</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44844</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44844</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44844</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>44875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44896</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>44916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>44916</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44979</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44979</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44979</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45042</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45141</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45162</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45180</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>44131</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43700</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43867</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44061</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43993</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44297</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45035</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43408</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43777</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44916</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43590</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43775</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44060</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44844</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45035</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43395</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43426</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43511</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43511</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43619</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43671</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43777</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43854</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43857</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43857</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43916</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43921</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43921</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43921</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43921</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43928</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43936</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44060</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>44060</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44060</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44061</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44092</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44154</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44165</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44216</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44237</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44294</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44340</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44340</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44623</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44687</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44805</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44840</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44844</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44844</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44844</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>44875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44896</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>44916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>44916</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44979</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44979</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44979</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45042</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45141</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45162</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45180</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>44131</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43700</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43867</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44061</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43993</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44297</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45035</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43408</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43777</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44916</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43590</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43775</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44060</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44844</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45035</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43395</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43426</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43511</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43511</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43619</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43671</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43777</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43854</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43857</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43857</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43916</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43921</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43921</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43921</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43921</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43928</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43936</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44060</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>44060</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44060</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44061</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44092</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44154</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44165</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44216</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44237</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44294</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44340</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44340</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44623</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44687</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44805</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44840</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44844</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44844</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44844</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>44875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44896</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>44916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>44916</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44979</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44979</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44979</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45042</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45141</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45162</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45180</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>44131</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43700</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43867</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44061</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43993</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44297</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45035</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43408</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43777</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44916</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43590</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43775</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44060</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44844</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45035</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43395</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43426</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43511</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43511</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43619</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43671</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43777</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43854</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43857</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43857</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43916</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43921</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43921</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43921</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43921</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43928</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43936</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44060</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>44060</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44060</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44061</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44092</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44154</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44165</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44216</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44237</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44294</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44340</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44340</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44623</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44687</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44805</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44840</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44844</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44844</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44844</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>44875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44896</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>44916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>44916</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44979</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44979</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44979</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45042</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45141</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45162</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45180</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>44131</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43700</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43867</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44061</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>43993</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43993</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44297</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45035</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43408</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43777</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44916</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43590</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43775</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44060</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44844</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45035</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43395</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43426</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43487</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43511</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43511</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43549</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43619</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43671</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43777</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43854</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43857</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43857</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43916</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43921</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43921</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43921</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43921</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43928</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43936</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44060</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>44060</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44060</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44061</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44092</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44154</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44165</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44216</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44237</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44294</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44340</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44340</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44623</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44687</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44805</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44840</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44844</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44844</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44844</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>44875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44896</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>44916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>44916</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44979</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44979</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44979</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45042</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45141</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45162</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45180</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>44131</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43700</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -995,14 +995,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 52664-2019</t>
+          <t>A 38281-2020</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>43738</v>
+        <v>44060</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,40 +1014,138 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>20.8</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>9</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Blå taggsvamp
+Nordtagging
+Orange taggsvamp
+Vitplätt
+Dropptaggsvamp
+Plattlummer
+Skarp dropptaggsvamp
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 38281-2020.xlsx", "A 38281-2020")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 38281-2020.png", "A 38281-2020")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 38281-2020.docx", "A 38281-2020")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 38281-2020.docx", "A 38281-2020")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 38281-2020.docx", "A 38281-2020")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 38281-2020.docx", "A 38281-2020")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 52664-2019</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>43738</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>3</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>4</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>7</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>7</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Gräddporing
 Lateritticka
@@ -1058,92 +1156,92 @@
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 52664-2019.xlsx", "A 52664-2019")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 52664-2019.png", "A 52664-2019")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 52664-2019.docx", "A 52664-2019")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 52664-2019.docx", "A 52664-2019")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 52664-2019.docx", "A 52664-2019")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 52664-2019.docx", "A 52664-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 6934-2020</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>43867</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="C8" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>17.1</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K8" t="n">
         <v>2</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>7</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P8" t="n">
         <v>2</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q8" t="n">
         <v>7</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Ostticka
 Rynkskinn
@@ -1154,87 +1252,87 @@
 Ullticka</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 6934-2020.xlsx", "A 6934-2020")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 6934-2020.png", "A 6934-2020")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 6934-2020.docx", "A 6934-2020")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 6934-2020.docx", "A 6934-2020")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 6934-2020.docx", "A 6934-2020")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 6934-2020.docx", "A 6934-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 38722-2020</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>44061</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>43.4</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>2</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J9" t="n">
         <v>5</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>5</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>7</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Blanksvart spiklav
 Blå taggsvamp
@@ -1245,87 +1343,87 @@
 Plattlummer</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 38722-2020.xlsx", "A 38722-2020")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 38722-2020.png", "A 38722-2020")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 38722-2020.docx", "A 38722-2020")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 38722-2020.docx", "A 38722-2020")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 38722-2020.docx", "A 38722-2020")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 38722-2020.docx", "A 38722-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 27955-2020</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>43993</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>46.5</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>2</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>2</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>4</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Granticka
@@ -1333,92 +1431,92 @@
 Ögonpyrola</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 27955-2020.xlsx", "A 27955-2020")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 27955-2020.png", "A 27955-2020")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 27955-2020.docx", "A 27955-2020")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 27955-2020.docx", "A 27955-2020")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 27955-2020.docx", "A 27955-2020")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 27955-2020.docx", "A 27955-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 42532-2020</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>44074</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="C11" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>24.6</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>3</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>4</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q11" t="n">
         <v>4</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Knottrig blåslav
@@ -1426,92 +1524,92 @@
 Vitplätt</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 42532-2020.xlsx", "A 42532-2020")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 42532-2020.png", "A 42532-2020")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 42532-2020.docx", "A 42532-2020")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 42532-2020.docx", "A 42532-2020")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 42532-2020.docx", "A 42532-2020")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 42532-2020.docx", "A 42532-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 42512-2020</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>44074</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="C12" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>14</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J12" t="n">
         <v>3</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>3</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>4</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Knottrig blåslav
@@ -1519,923 +1617,841 @@
 Plattlummer</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 42512-2020.xlsx", "A 42512-2020")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 42512-2020.png", "A 42512-2020")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 42512-2020.docx", "A 42512-2020")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 42512-2020.docx", "A 42512-2020")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 42512-2020.docx", "A 42512-2020")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 42512-2020.docx", "A 42512-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 27642-2020</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>43993</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C13" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>31.9</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>2</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P13" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q13" t="n">
         <v>3</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Gräddporing
 Röd trolldruva
 Brudsporre</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 27642-2020.xlsx", "A 27642-2020")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 27642-2020.png", "A 27642-2020")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 27642-2020.docx", "A 27642-2020")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 27642-2020.docx", "A 27642-2020")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 27642-2020.docx", "A 27642-2020")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 27642-2020.docx", "A 27642-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 38342-2020</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44060</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Rosenticka
+Tallriska</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 38342-2020.xlsx", "A 38342-2020")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 38342-2020.png", "A 38342-2020")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 38342-2020.docx", "A 38342-2020")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 38342-2020.docx", "A 38342-2020")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 38342-2020.docx", "A 38342-2020")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 38342-2020.docx", "A 38342-2020")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 42509-2020</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>44074</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="C15" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G15" t="n">
         <v>25.3</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>3</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>3</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>3</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Harticka
 Knottrig blåslav</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 42509-2020.xlsx", "A 42509-2020")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 42509-2020.png", "A 42509-2020")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 42509-2020.docx", "A 42509-2020")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 42509-2020.docx", "A 42509-2020")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 42509-2020.docx", "A 42509-2020")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 42509-2020.docx", "A 42509-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 17088-2021</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>44297</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C16" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>59.9</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>3</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>3</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>3</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Blå taggsvamp
 Motaggsvamp
 Vitplätt</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 17088-2021.xlsx", "A 17088-2021")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 17088-2021.png", "A 17088-2021")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 17088-2021.docx", "A 17088-2021")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 17088-2021.docx", "A 17088-2021")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 17088-2021.docx", "A 17088-2021")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 17088-2021.docx", "A 17088-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 17705-2023</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>45035</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C17" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G17" t="n">
         <v>58.9</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>2</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P17" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q17" t="n">
         <v>3</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Orange taggsvamp
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 17705-2023.xlsx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 17705-2023.png", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 17705-2023.docx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 17705-2023.docx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 17705-2023.docx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 17705-2023.docx", "A 17705-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 58216-2018</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>43408</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C18" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>11</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>2</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>2</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>2</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Harticka
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 58216-2018.xlsx", "A 58216-2018")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 58216-2018.png", "A 58216-2018")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 58216-2018.docx", "A 58216-2018")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 58216-2018.docx", "A 58216-2018")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 58216-2018.docx", "A 58216-2018")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 58216-2018.docx", "A 58216-2018")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 60777-2019</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>43777</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C19" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>4.9</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>2</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>2</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 60777-2019.xlsx", "A 60777-2019")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 60777-2019.png", "A 60777-2019")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 60777-2019.docx", "A 60777-2019")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 60777-2019.docx", "A 60777-2019")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 60777-2019.docx", "A 60777-2019")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 60777-2019.docx", "A 60777-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 38334-2020</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>44060</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>13</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Torrmusseron
+Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 38334-2020.xlsx", "A 38334-2020")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 38334-2020.png", "A 38334-2020")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 38334-2020.docx", "A 38334-2020")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 38334-2020.docx", "A 38334-2020")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 38334-2020.docx", "A 38334-2020")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 38334-2020.docx", "A 38334-2020")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 62435-2022</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>44916</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="C21" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>13.3</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>2</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>2</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>2</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Harticka
 Rosenticka</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 62435-2022.xlsx", "A 62435-2022")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 62435-2022.png", "A 62435-2022")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 62435-2022.docx", "A 62435-2022")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 62435-2022.docx", "A 62435-2022")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 62435-2022.docx", "A 62435-2022")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 62435-2022.docx", "A 62435-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 22812-2019</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>43590</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 22812-2019.xlsx", "A 22812-2019")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 22812-2019.png", "A 22812-2019")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 22812-2019.docx", "A 22812-2019")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 22812-2019.docx", "A 22812-2019")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 22812-2019.docx", "A 22812-2019")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 22812-2019.docx", "A 22812-2019")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 61313-2019</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>43775</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Norna</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 61313-2019.xlsx", "A 61313-2019")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 61313-2019.png", "A 61313-2019")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 61313-2019.docx", "A 61313-2019")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 61313-2019.docx", "A 61313-2019")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 61313-2019.docx", "A 61313-2019")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 61313-2019.docx", "A 61313-2019")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 38342-2020</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>44060</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>4</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Rosenticka</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 38342-2020.xlsx", "A 38342-2020")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 38342-2020.png", "A 38342-2020")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 38342-2020.docx", "A 38342-2020")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 38342-2020.docx", "A 38342-2020")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 38342-2020.docx", "A 38342-2020")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 38342-2020.docx", "A 38342-2020")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 45810-2022</t>
+          <t>A 22812-2019</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44844</v>
+        <v>43590</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2447,23 +2463,18 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>6.8</v>
+        <v>22.6</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
@@ -2477,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2487,45 +2498,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 45810-2022.xlsx", "A 45810-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 22812-2019.xlsx", "A 22812-2019")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 45810-2022.png", "A 45810-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 22812-2019.png", "A 22812-2019")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 45810-2022.docx", "A 45810-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 22812-2019.docx", "A 22812-2019")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 45810-2022.docx", "A 45810-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 22812-2019.docx", "A 22812-2019")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 45810-2022.docx", "A 45810-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 22812-2019.docx", "A 22812-2019")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 45810-2022.docx", "A 45810-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 22812-2019.docx", "A 22812-2019")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 17740-2023</t>
+          <t>A 61313-2019</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45035</v>
+        <v>43775</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2539,23 +2550,23 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>20.1</v>
+        <v>28.7</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2570,52 +2581,52 @@
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Norna</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 17740-2023.xlsx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 61313-2019.xlsx", "A 61313-2019")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 17740-2023.png", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 61313-2019.png", "A 61313-2019")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 17740-2023.docx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 61313-2019.docx", "A 61313-2019")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 17740-2023.docx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 61313-2019.docx", "A 61313-2019")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 17740-2023.docx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 61313-2019.docx", "A 61313-2019")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 17740-2023.docx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 61313-2019.docx", "A 61313-2019")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 54895-2018</t>
+          <t>A 45810-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43395</v>
+        <v>44844</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2627,11 +2638,16 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>20.2</v>
+        <v>6.8</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2658,21 +2674,49 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 45810-2022.xlsx", "A 45810-2022")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 45810-2022.png", "A 45810-2022")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 45810-2022.docx", "A 45810-2022")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 45810-2022.docx", "A 45810-2022")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 45810-2022.docx", "A 45810-2022")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 45810-2022.docx", "A 45810-2022")</f>
+        <v/>
+      </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 58215-2018</t>
+          <t>A 17740-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43408</v>
+        <v>45035</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2684,8 +2728,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>11.4</v>
+        <v>20.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2694,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2709,27 +2758,55 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Knottrig blåslav</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 17740-2023.xlsx", "A 17740-2023")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 17740-2023.png", "A 17740-2023")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 17740-2023.docx", "A 17740-2023")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 17740-2023.docx", "A 17740-2023")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 17740-2023.docx", "A 17740-2023")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 17740-2023.docx", "A 17740-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 66120-2018</t>
+          <t>A 54895-2018</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43426</v>
+        <v>43395</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2742,7 +2819,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2779,14 +2856,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 2365-2019</t>
+          <t>A 58215-2018</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43468</v>
+        <v>43408</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2799,7 +2876,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.7</v>
+        <v>11.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2836,14 +2913,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 6537-2019</t>
+          <t>A 66120-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43487</v>
+        <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2856,7 +2933,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>11.6</v>
+        <v>20.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2893,14 +2970,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 7300-2019</t>
+          <t>A 2365-2019</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43489</v>
+        <v>43468</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2912,13 +2989,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>18.8</v>
+        <v>4.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2955,14 +3027,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 7362-2019</t>
+          <t>A 6537-2019</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43496</v>
+        <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2975,7 +3047,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>9.5</v>
+        <v>11.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3012,14 +3084,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 10406-2019</t>
+          <t>A 7300-2019</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43511</v>
+        <v>43489</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3033,11 +3105,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>18.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3074,14 +3146,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 10409-2019</t>
+          <t>A 7362-2019</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43511</v>
+        <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3093,13 +3165,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>4.8</v>
+        <v>9.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3136,14 +3203,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 17218-2019</t>
+          <t>A 10406-2019</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43549</v>
+        <v>43511</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3157,11 +3224,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>9.5</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3198,14 +3265,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 28894-2019</t>
+          <t>A 10409-2019</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43619</v>
+        <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3217,8 +3284,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>0.3</v>
+        <v>4.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3255,14 +3327,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 36621-2019</t>
+          <t>A 17218-2019</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43671</v>
+        <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3274,8 +3346,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>10.3</v>
+        <v>9.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3312,14 +3389,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 59736-2019</t>
+          <t>A 28894-2019</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43776</v>
+        <v>43619</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3332,7 +3409,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>21.8</v>
+        <v>0.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3369,14 +3446,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 60754-2019</t>
+          <t>A 36621-2019</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43777</v>
+        <v>43671</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3389,7 +3466,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>14.8</v>
+        <v>10.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3426,14 +3503,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 60769-2019</t>
+          <t>A 59736-2019</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43777</v>
+        <v>43776</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3446,7 +3523,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>8.199999999999999</v>
+        <v>21.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3483,14 +3560,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 60786-2019</t>
+          <t>A 60754-2019</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
         <v>43777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3503,7 +3580,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>20</v>
+        <v>14.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3540,14 +3617,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 5296-2020</t>
+          <t>A 60769-2019</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43854</v>
+        <v>43777</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3559,13 +3636,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>1.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3602,14 +3674,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 4966-2020</t>
+          <t>A 60786-2019</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43857</v>
+        <v>43777</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3621,13 +3693,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>0.3</v>
+        <v>20</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3664,14 +3731,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 4963-2020</t>
+          <t>A 5296-2020</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43857</v>
+        <v>43854</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3685,11 +3752,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3726,14 +3793,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 4962-2020</t>
+          <t>A 4966-2020</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
         <v>43857</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3751,7 +3818,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3788,14 +3855,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 17246-2020</t>
+          <t>A 4963-2020</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43916</v>
+        <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3807,8 +3874,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>52.4</v>
+        <v>0.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3845,14 +3917,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 17071-2020</t>
+          <t>A 4962-2020</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43921</v>
+        <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3864,8 +3936,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>14.8</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3902,14 +3979,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 17073-2020</t>
+          <t>A 17246-2020</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43921</v>
+        <v>43916</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3922,7 +3999,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>21</v>
+        <v>52.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3959,14 +4036,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 17074-2020</t>
+          <t>A 17071-2020</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
         <v>43921</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3979,7 +4056,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>11</v>
+        <v>14.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4016,14 +4093,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 17070-2020</t>
+          <t>A 17073-2020</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
         <v>43921</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4036,7 +4113,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>33.9</v>
+        <v>21</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4073,14 +4150,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 18434-2020</t>
+          <t>A 17074-2020</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43928</v>
+        <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4093,7 +4170,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4130,14 +4207,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 19632-2020</t>
+          <t>A 17070-2020</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>43936</v>
+        <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4150,7 +4227,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.6</v>
+        <v>33.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4187,14 +4264,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 38331-2020</t>
+          <t>A 18434-2020</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44060</v>
+        <v>43928</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4206,13 +4283,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>52</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4249,14 +4321,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 38281-2020</t>
+          <t>A 19632-2020</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44060</v>
+        <v>43936</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4268,13 +4340,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>20</v>
+        <v>4.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4311,14 +4378,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 38334-2020</t>
+          <t>A 38331-2020</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
         <v>44060</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4336,7 +4403,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>13</v>
+        <v>0.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4380,7 +4447,7 @@
         <v>44061</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4504,7 @@
         <v>44092</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4494,7 +4561,7 @@
         <v>44154</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4551,7 +4618,7 @@
         <v>44165</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4608,7 +4675,7 @@
         <v>44216</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4665,7 +4732,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4722,7 +4789,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4779,7 +4846,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4836,7 +4903,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4893,7 +4960,7 @@
         <v>44237</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4950,7 +5017,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5007,7 +5074,7 @@
         <v>44294</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5064,7 +5131,7 @@
         <v>44340</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5121,7 +5188,7 @@
         <v>44340</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5178,7 +5245,7 @@
         <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5235,7 +5302,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5292,7 +5359,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5349,7 +5416,7 @@
         <v>44375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5406,7 +5473,7 @@
         <v>44564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5463,7 +5530,7 @@
         <v>44623</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5520,7 +5587,7 @@
         <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5577,7 +5644,7 @@
         <v>44687</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5634,7 +5701,7 @@
         <v>44692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5691,7 +5758,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5748,7 +5815,7 @@
         <v>44748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5805,7 +5872,7 @@
         <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5862,7 +5929,7 @@
         <v>44805</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5919,7 +5986,7 @@
         <v>44840</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5981,7 +6048,7 @@
         <v>44844</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6038,7 +6105,7 @@
         <v>44844</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6095,7 +6162,7 @@
         <v>44844</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6152,7 +6219,7 @@
         <v>44875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6214,7 +6281,7 @@
         <v>44896</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6271,7 +6338,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6328,7 +6395,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6385,7 +6452,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6442,7 +6509,7 @@
         <v>44916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6499,7 +6566,7 @@
         <v>44916</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6556,7 +6623,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6613,7 +6680,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6675,7 +6742,7 @@
         <v>44979</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6804,7 @@
         <v>44979</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6799,7 +6866,7 @@
         <v>44979</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6861,7 +6928,7 @@
         <v>45042</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6923,7 +6990,7 @@
         <v>45141</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6980,7 +7047,7 @@
         <v>45162</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7037,7 +7104,7 @@
         <v>45180</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>44131</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43700</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44060</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43738</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43867</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44061</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1371,14 +1371,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 27955-2020</t>
+          <t>A 38342-2020</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>43993</v>
+        <v>44060</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,17 +1390,22 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>46.5</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -1415,15 +1420,104 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
       </c>
       <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Ostticka
+Granticka
+Rosenticka
+Tallriska
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 38342-2020.xlsx", "A 38342-2020")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 38342-2020.png", "A 38342-2020")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 38342-2020.docx", "A 38342-2020")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 38342-2020.docx", "A 38342-2020")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 38342-2020.docx", "A 38342-2020")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 38342-2020.docx", "A 38342-2020")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 27955-2020</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>43993</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
         <v>4</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Granticka
@@ -1431,92 +1525,92 @@
 Ögonpyrola</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 27955-2020.xlsx", "A 27955-2020")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 27955-2020.png", "A 27955-2020")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 27955-2020.docx", "A 27955-2020")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 27955-2020.docx", "A 27955-2020")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 27955-2020.docx", "A 27955-2020")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 27955-2020.docx", "A 27955-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 42532-2020</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>44074</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45202</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="C12" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>24.6</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>3</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>4</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q12" t="n">
         <v>4</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Knottrig blåslav
@@ -1524,92 +1618,92 @@
 Vitplätt</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 42532-2020.xlsx", "A 42532-2020")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 42532-2020.png", "A 42532-2020")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 42532-2020.docx", "A 42532-2020")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 42532-2020.docx", "A 42532-2020")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 42532-2020.docx", "A 42532-2020")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 42532-2020.docx", "A 42532-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 42512-2020</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>44074</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45202</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C13" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>14</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J13" t="n">
         <v>3</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>3</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>4</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Knottrig blåslav
@@ -1617,207 +1711,115 @@
 Plattlummer</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 42512-2020.xlsx", "A 42512-2020")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 42512-2020.png", "A 42512-2020")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 42512-2020.docx", "A 42512-2020")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 42512-2020.docx", "A 42512-2020")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 42512-2020.docx", "A 42512-2020")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 42512-2020.docx", "A 42512-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 27642-2020</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>43993</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>45202</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C14" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>31.9</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K14" t="n">
         <v>1</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>2</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q14" t="n">
         <v>3</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Gräddporing
 Röd trolldruva
 Brudsporre</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 27642-2020.xlsx", "A 27642-2020")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 27642-2020.png", "A 27642-2020")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 27642-2020.docx", "A 27642-2020")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 27642-2020.docx", "A 27642-2020")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 27642-2020.docx", "A 27642-2020")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 27642-2020.docx", "A 27642-2020")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 38342-2020</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44060</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>45202</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Rosenticka
-Tallriska</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 38342-2020.xlsx", "A 38342-2020")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 38342-2020.png", "A 38342-2020")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 38342-2020.docx", "A 38342-2020")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 38342-2020.docx", "A 38342-2020")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 38342-2020.docx", "A 38342-2020")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 38342-2020.docx", "A 38342-2020")</f>
         <v/>
       </c>
     </row>
@@ -1831,7 +1833,7 @@
         <v>44074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1925,7 @@
         <v>44297</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2010,7 +2012,7 @@
         <v>45035</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2102,7 +2104,7 @@
         <v>43408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2188,7 +2190,7 @@
         <v>43777</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2274,7 +2276,7 @@
         <v>44060</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2365,7 +2367,7 @@
         <v>44916</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2451,7 +2453,7 @@
         <v>43590</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2536,7 +2538,7 @@
         <v>43775</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2626,7 +2628,7 @@
         <v>44844</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2716,7 +2718,7 @@
         <v>45035</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2806,7 +2808,7 @@
         <v>43395</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2863,7 +2865,7 @@
         <v>43408</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2920,7 +2922,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2977,7 +2979,7 @@
         <v>43468</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3034,7 +3036,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3091,7 +3093,7 @@
         <v>43489</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3153,7 +3155,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3210,7 +3212,7 @@
         <v>43511</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3272,7 +3274,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3334,7 +3336,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3396,7 +3398,7 @@
         <v>43619</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3453,7 +3455,7 @@
         <v>43671</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3510,7 +3512,7 @@
         <v>43776</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3567,7 +3569,7 @@
         <v>43777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3624,7 +3626,7 @@
         <v>43777</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3681,7 +3683,7 @@
         <v>43777</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3738,7 +3740,7 @@
         <v>43854</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3800,7 +3802,7 @@
         <v>43857</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3862,7 +3864,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3924,7 +3926,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3986,7 +3988,7 @@
         <v>43916</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4043,7 +4045,7 @@
         <v>43921</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4100,7 +4102,7 @@
         <v>43921</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4157,7 +4159,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4214,7 +4216,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4271,7 +4273,7 @@
         <v>43928</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4328,7 +4330,7 @@
         <v>43936</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4385,7 +4387,7 @@
         <v>44060</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4447,7 +4449,7 @@
         <v>44061</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4504,7 +4506,7 @@
         <v>44092</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4561,7 +4563,7 @@
         <v>44154</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4618,7 +4620,7 @@
         <v>44165</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4675,7 +4677,7 @@
         <v>44216</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4732,7 +4734,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4789,7 +4791,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4846,7 +4848,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4903,7 +4905,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4960,7 +4962,7 @@
         <v>44237</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5017,7 +5019,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5074,7 +5076,7 @@
         <v>44294</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5131,7 +5133,7 @@
         <v>44340</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5188,7 +5190,7 @@
         <v>44340</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5245,7 +5247,7 @@
         <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5302,7 +5304,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5359,7 +5361,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5416,7 +5418,7 @@
         <v>44375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5473,7 +5475,7 @@
         <v>44564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5530,7 +5532,7 @@
         <v>44623</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5587,7 +5589,7 @@
         <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5644,7 +5646,7 @@
         <v>44687</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5701,7 +5703,7 @@
         <v>44692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5758,7 +5760,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5815,7 +5817,7 @@
         <v>44748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5872,7 +5874,7 @@
         <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5929,7 +5931,7 @@
         <v>44805</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5986,7 +5988,7 @@
         <v>44840</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6048,7 +6050,7 @@
         <v>44844</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6105,7 +6107,7 @@
         <v>44844</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6162,7 +6164,7 @@
         <v>44844</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6219,7 +6221,7 @@
         <v>44875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6281,7 +6283,7 @@
         <v>44896</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6338,7 +6340,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6395,7 +6397,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6452,7 +6454,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6509,7 +6511,7 @@
         <v>44916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6566,7 +6568,7 @@
         <v>44916</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6623,7 +6625,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6680,7 +6682,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6742,7 +6744,7 @@
         <v>44979</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6804,7 +6806,7 @@
         <v>44979</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6866,7 +6868,7 @@
         <v>44979</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6928,7 +6930,7 @@
         <v>45042</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6990,7 +6992,7 @@
         <v>45141</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7047,7 +7049,7 @@
         <v>45162</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7104,7 +7106,7 @@
         <v>45180</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>44131</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43700</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44060</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43738</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43867</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44061</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44060</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>43993</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>44074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44297</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45035</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>43408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43777</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>44060</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44916</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43590</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43775</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44844</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>45035</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43395</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43408</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43468</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43489</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43511</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43619</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43671</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>43776</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>43777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43777</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>43777</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>43854</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43857</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43916</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43921</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43921</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43928</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43936</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44060</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44061</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44092</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44154</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44165</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>44216</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>44237</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>44294</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>44340</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>44340</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>44375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>44564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>44623</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44687</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44805</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44840</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>44844</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>44844</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>44844</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>44875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>44896</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>44916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44916</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>44979</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>44979</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44979</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45042</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>45141</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>45162</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>45180</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>44131</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,14 +800,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 42505-2020</t>
+          <t>A 38281-2020</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44074</v>
+        <v>44060</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -821,43 +821,145 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>30.4</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>8</v>
       </c>
-      <c r="K4" t="n">
-        <v>3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11</v>
-      </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Blå taggsvamp
+Granticka
+Nordtagging
+Orange taggsvamp
+Rosenticka
+Violmussling
+Vitplätt
+Blodticka
+Dropptaggsvamp
+Plattlummer
+Skarp dropptaggsvamp
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 38281-2020.xlsx", "A 38281-2020")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 38281-2020.png", "A 38281-2020")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 38281-2020.docx", "A 38281-2020")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 38281-2020.docx", "A 38281-2020")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 38281-2020.docx", "A 38281-2020")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 38281-2020.docx", "A 38281-2020")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 42505-2020</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44074</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>11</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>13</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Kristallticka
 Lappticka
@@ -874,87 +976,87 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 42505-2020.xlsx", "A 42505-2020")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 42505-2020.png", "A 42505-2020")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 42505-2020.docx", "A 42505-2020")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 42505-2020.docx", "A 42505-2020")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 42505-2020.docx", "A 42505-2020")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 42505-2020.docx", "A 42505-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 41920-2019</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>43700</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>45204</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>200.7</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>8</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K6" t="n">
         <v>1</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>9</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q6" t="n">
         <v>9</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Mörk blåslav
 Fjällvråk
@@ -967,126 +1069,28 @@
 Violmussling</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 41920-2019.xlsx", "A 41920-2019")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 41920-2019.png", "A 41920-2019")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 41920-2019.docx", "A 41920-2019")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 41920-2019.docx", "A 41920-2019")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 41920-2019.docx", "A 41920-2019")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 41920-2019.docx", "A 41920-2019")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 38281-2020</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44060</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>45204</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>20</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>9</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
-Blå taggsvamp
-Nordtagging
-Orange taggsvamp
-Vitplätt
-Dropptaggsvamp
-Plattlummer
-Skarp dropptaggsvamp
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 38281-2020.xlsx", "A 38281-2020")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 38281-2020.png", "A 38281-2020")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 38281-2020.docx", "A 38281-2020")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 38281-2020.docx", "A 38281-2020")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 38281-2020.docx", "A 38281-2020")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 38281-2020.docx", "A 38281-2020")</f>
         <v/>
       </c>
     </row>
@@ -1100,7 +1104,7 @@
         <v>43738</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1195,7 @@
         <v>43867</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1291,7 @@
         <v>44061</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1382,7 @@
         <v>44060</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1472,7 +1476,7 @@
         <v>43993</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1560,7 +1564,7 @@
         <v>44074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1657,7 @@
         <v>44074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1746,7 +1750,7 @@
         <v>43993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,14 +1830,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 42509-2020</t>
+          <t>A 38334-2020</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44074</v>
+        <v>44060</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1847,11 +1851,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>25.3</v>
+        <v>13</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1860,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1878,482 +1882,483 @@
         <v>3</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>3</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Torrmusseron
+Blå taggsvamp
+Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 38334-2020.xlsx", "A 38334-2020")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 38334-2020.png", "A 38334-2020")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 38334-2020.docx", "A 38334-2020")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 38334-2020.docx", "A 38334-2020")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 38334-2020.docx", "A 38334-2020")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 38334-2020.docx", "A 38334-2020")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 42509-2020</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44074</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Harticka
 Knottrig blåslav</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 42509-2020.xlsx", "A 42509-2020")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 42509-2020.png", "A 42509-2020")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 42509-2020.docx", "A 42509-2020")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 42509-2020.docx", "A 42509-2020")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 42509-2020.docx", "A 42509-2020")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 42509-2020.docx", "A 42509-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 17088-2021</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44297</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>45204</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C17" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>59.9</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>3</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>3</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>3</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Blå taggsvamp
 Motaggsvamp
 Vitplätt</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 17088-2021.xlsx", "A 17088-2021")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 17088-2021.png", "A 17088-2021")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 17088-2021.docx", "A 17088-2021")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 17088-2021.docx", "A 17088-2021")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 17088-2021.docx", "A 17088-2021")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 17088-2021.docx", "A 17088-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 17705-2023</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>45035</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45204</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="C18" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>58.9</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K18" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>2</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P18" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q18" t="n">
         <v>3</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Orange taggsvamp
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 17705-2023.xlsx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 17705-2023.png", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 17705-2023.docx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 17705-2023.docx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 17705-2023.docx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 17705-2023.docx", "A 17705-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 58216-2018</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>43408</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>45204</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="C19" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>11</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>2</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>2</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Harticka
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 58216-2018.xlsx", "A 58216-2018")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 58216-2018.png", "A 58216-2018")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 58216-2018.docx", "A 58216-2018")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 58216-2018.docx", "A 58216-2018")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 58216-2018.docx", "A 58216-2018")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 58216-2018.docx", "A 58216-2018")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 60777-2019</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>43777</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>45204</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+      <c r="C20" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>4.9</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>2</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>2</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Ullticka</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 60777-2019.xlsx", "A 60777-2019")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 60777-2019.png", "A 60777-2019")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 60777-2019.docx", "A 60777-2019")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 60777-2019.docx", "A 60777-2019")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 60777-2019.docx", "A 60777-2019")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 60777-2019.docx", "A 60777-2019")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 38334-2020</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>44060</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>45204</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>13</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Torrmusseron
-Talltaggsvamp</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/artfynd/A 38334-2020.xlsx", "A 38334-2020")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/kartor/A 38334-2020.png", "A 38334-2020")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomål/A 38334-2020.docx", "A 38334-2020")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/klagomålsmail/A 38334-2020.docx", "A 38334-2020")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsyn/A 38334-2020.docx", "A 38334-2020")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIRUNA/tillsynsmail/A 38334-2020.docx", "A 38334-2020")</f>
         <v/>
       </c>
     </row>
@@ -2367,7 +2372,7 @@
         <v>44916</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2453,7 +2458,7 @@
         <v>43590</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2538,7 +2543,7 @@
         <v>43775</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2628,7 +2633,7 @@
         <v>44844</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2718,7 +2723,7 @@
         <v>45035</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2808,7 +2813,7 @@
         <v>43395</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2865,7 +2870,7 @@
         <v>43408</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2922,7 +2927,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2979,7 +2984,7 @@
         <v>43468</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3036,7 +3041,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3093,7 +3098,7 @@
         <v>43489</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3155,7 +3160,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3212,7 +3217,7 @@
         <v>43511</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3274,7 +3279,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3336,7 +3341,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3398,7 +3403,7 @@
         <v>43619</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3455,7 +3460,7 @@
         <v>43671</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3512,7 +3517,7 @@
         <v>43776</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3569,7 +3574,7 @@
         <v>43777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3626,7 +3631,7 @@
         <v>43777</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3683,7 +3688,7 @@
         <v>43777</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3740,7 +3745,7 @@
         <v>43854</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3802,7 +3807,7 @@
         <v>43857</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3864,7 +3869,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3926,7 +3931,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3988,7 +3993,7 @@
         <v>43916</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4045,7 +4050,7 @@
         <v>43921</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4102,7 +4107,7 @@
         <v>43921</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4159,7 +4164,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4216,7 +4221,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4273,7 +4278,7 @@
         <v>43928</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4330,7 +4335,7 @@
         <v>43936</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4387,7 +4392,7 @@
         <v>44060</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4449,7 +4454,7 @@
         <v>44061</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4506,7 +4511,7 @@
         <v>44092</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4563,7 +4568,7 @@
         <v>44154</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4620,7 +4625,7 @@
         <v>44165</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4677,7 +4682,7 @@
         <v>44216</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4734,7 +4739,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4791,7 +4796,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4848,7 +4853,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4905,7 +4910,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4962,7 +4967,7 @@
         <v>44237</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5019,7 +5024,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5076,7 +5081,7 @@
         <v>44294</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5133,7 +5138,7 @@
         <v>44340</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5190,7 +5195,7 @@
         <v>44340</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5247,7 +5252,7 @@
         <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5304,7 +5309,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5361,7 +5366,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5418,7 +5423,7 @@
         <v>44375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5475,7 +5480,7 @@
         <v>44564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5532,7 +5537,7 @@
         <v>44623</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5589,7 +5594,7 @@
         <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5646,7 +5651,7 @@
         <v>44687</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5703,7 +5708,7 @@
         <v>44692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5760,7 +5765,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5817,7 +5822,7 @@
         <v>44748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5874,7 +5879,7 @@
         <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5931,7 +5936,7 @@
         <v>44805</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5988,7 +5993,7 @@
         <v>44840</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6050,7 +6055,7 @@
         <v>44844</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6107,7 +6112,7 @@
         <v>44844</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6164,7 +6169,7 @@
         <v>44844</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6221,7 +6226,7 @@
         <v>44875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6283,7 +6288,7 @@
         <v>44896</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6340,7 +6345,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6397,7 +6402,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6454,7 +6459,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6511,7 +6516,7 @@
         <v>44916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6568,7 +6573,7 @@
         <v>44916</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6625,7 +6630,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6682,7 +6687,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6744,7 +6749,7 @@
         <v>44979</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6806,7 +6811,7 @@
         <v>44979</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6868,7 +6873,7 @@
         <v>44979</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6930,7 +6935,7 @@
         <v>45042</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6992,7 +6997,7 @@
         <v>45141</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7049,7 +7054,7 @@
         <v>45162</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7106,7 +7111,7 @@
         <v>45180</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -572,7 +572,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>44131</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44060</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>44074</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>43700</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43738</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43867</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44061</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>44060</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43993</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43993</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44060</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>44074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44297</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>45035</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43777</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44916</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43590</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>43775</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44844</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>45035</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43395</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43408</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43468</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43489</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43511</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43549</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43619</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43671</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43776</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43777</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43777</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43854</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43857</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43857</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43916</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43921</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43921</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43921</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43928</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43936</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44060</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44061</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44092</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44154</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44165</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44216</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44237</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>44260</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>44294</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>44340</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>44340</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>44375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>44375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>44375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>44564</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>44623</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>44687</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>44692</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>44748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>44805</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>44840</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>44844</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>44844</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44844</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>44875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>44896</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>44916</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>44916</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>44916</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>44916</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>44979</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>44979</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>44979</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44979</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>45042</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>45141</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>45162</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>45180</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
